--- a/assets/Coeficientes_modelos.xlsx
+++ b/assets/Coeficientes_modelos.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="2426" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17229" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Testigos_menos de 10.000" sheetId="1" r:id="rId1"/>
     <sheet name="Testigos_10000-50000" sheetId="2" r:id="rId2"/>
     <sheet name="Testigos_50000-200000" sheetId="3" r:id="rId3"/>
     <sheet name="Testigos_más de 200000" sheetId="4" r:id="rId4"/>
-    <sheet name="Testigos_Tasa" sheetId="5" r:id="rId5"/>
-    <sheet name="Testigos_Prima" sheetId="6" r:id="rId6"/>
+    <sheet name="Testigos_Tasa_old" sheetId="5" r:id="rId5"/>
+    <sheet name="Testigos_Prima_old" sheetId="6" r:id="rId6"/>
+    <sheet name="Testigos_Tasa" sheetId="7" r:id="rId7"/>
+    <sheet name="Testigos_Prima" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
   <si>
     <t>VMma</t>
   </si>
@@ -69,6 +71,12 @@
   </si>
   <si>
     <t>Coef. rehab</t>
+  </si>
+  <si>
+    <t>Coef. renta</t>
+  </si>
+  <si>
+    <t>Coef. creci</t>
   </si>
 </sst>
 </file>
@@ -121,11 +129,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
@@ -7403,7 +7413,7 @@
   <dimension ref="A1:K770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16139,7 +16149,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -17253,8 +17263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -18274,4 +18284,6949 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L426"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89811890000000005</v>
+      </c>
+      <c r="C2">
+        <v>-0.74061659999999996</v>
+      </c>
+      <c r="D2">
+        <v>-2.3134200000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.4606056</v>
+      </c>
+      <c r="F2">
+        <v>0.18294279999999999</v>
+      </c>
+      <c r="G2">
+        <v>-0.35959279999999999</v>
+      </c>
+      <c r="H2">
+        <v>-0.37120170000000002</v>
+      </c>
+      <c r="I2">
+        <v>-0.72429690000000002</v>
+      </c>
+      <c r="J2">
+        <v>-0.1998952</v>
+      </c>
+      <c r="K2">
+        <v>0.27196169999999997</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.7376989999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.94077259999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.14981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.33833819999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1223668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>2073</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.6149327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>2081</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.1786669999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.9796320000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>3011</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.56614160000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>3014</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6006020000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>3019</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.7422579999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>3031</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.35925469999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>3047</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.1883459999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>3049</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.187575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>3050</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.39883259999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>3053</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.7933650000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>3065</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.901867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>3066</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.5715530000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>3069</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.0777730000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>3082</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.821224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>3090</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3683649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>3094</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.9441820000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.9827840000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>3121</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.3943660000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>3122</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.91568369999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>3128</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0611390000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>3133</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.84592400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>3139</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.097091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>4013</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.1864316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>4029</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.3737250000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>4032</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-0.74685270000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>4079</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-0.15437890000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>4100</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.4157190000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>4101</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-4.1344600000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>4102</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.8424770000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>4902</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.3684409999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>6011</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.508248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>6015</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-0.1473913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>6044</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.64615180000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>6060</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.394412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>6083</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.26329170000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>6153</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.792268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>6158</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.5778730000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>8015</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-0.59192359999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>8019</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-1.2073910000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>8051</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.9399219999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>8056</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-0.57575699999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>8073</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-0.14046719999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>8077</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.73252609999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>8089</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.2654970000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <v>8096</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-1.291E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>8101</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.0525850000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>8105</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.498739</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>8113</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-0.4123559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>8118</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-1.6525190000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>8121</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-0.58211559999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>8123</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-0.93774069999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>8125</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1.665038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>8136</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-0.28290349999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>8147</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-0.77308540000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>8163</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.11334E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>8169</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-0.2879485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <v>8172</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-1.858703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>8180</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-0.41241519999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <v>8181</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-1.0119359999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
+        <v>8183</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.823191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <v>8184</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.69400059999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
+        <v>8187</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-0.2096856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
+        <v>8205</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-8.9954199999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <v>8211</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-0.1856013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <v>8214</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.1500509999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <v>8231</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.5619619999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <v>8245</v>
+      </c>
+      <c r="B74" s="1">
+        <v>-0.2027378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <v>8250</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.827693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <v>8252</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-0.3133223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>8260</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.18416299999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <v>8262</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.5950579999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <v>8263</v>
+      </c>
+      <c r="B79" s="1">
+        <v>-0.54447619999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>8266</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-3.4721299999999997E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <v>8270</v>
+      </c>
+      <c r="B81" s="1">
+        <v>-0.57810600000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <v>8279</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.031677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>8301</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-0.3144227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <v>8305</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.2829159999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <v>8307</v>
+      </c>
+      <c r="B85" s="1">
+        <v>-1.1034649999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>9018</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-1.463473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <v>9059</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.8834610000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>9219</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.86752309999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.5182060000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <v>10037</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.31758769999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <v>10067</v>
+      </c>
+      <c r="B91" s="1">
+        <v>-0.76443070000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>10107</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.2563080000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <v>10128</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3.7206100000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <v>10131</v>
+      </c>
+      <c r="B94" s="1">
+        <v>-0.35686679999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <v>10148</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.97358140000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
+        <v>10180</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3.8843070000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <v>10192</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-0.1117274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <v>10195</v>
+      </c>
+      <c r="B98" s="1">
+        <v>-0.53006529999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <v>10203</v>
+      </c>
+      <c r="B99" s="1">
+        <v>-0.51934219999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.427861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <v>11004</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.685006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
+        <v>11007</v>
+      </c>
+      <c r="B102" s="1">
+        <v>-0.49968380000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <v>11008</v>
+      </c>
+      <c r="B103" s="1">
+        <v>-1.787917</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <v>11012</v>
+      </c>
+      <c r="B104" s="1">
+        <v>-0.51098180000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
+        <v>11015</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4.9381000000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
+        <v>11016</v>
+      </c>
+      <c r="B106" s="1">
+        <v>-0.79847999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
+        <v>11020</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.72848550000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="4">
+        <v>11022</v>
+      </c>
+      <c r="B108" s="1">
+        <v>-1.0258719999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="4">
+        <v>11023</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2.809812</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
+        <v>11027</v>
+      </c>
+      <c r="B110" s="1">
+        <v>-0.33964870000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="4">
+        <v>11028</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.50841809999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="4">
+        <v>11030</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.47628120000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
+        <v>11031</v>
+      </c>
+      <c r="B113" s="1">
+        <v>-0.15420049999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="4">
+        <v>11032</v>
+      </c>
+      <c r="B114" s="1">
+        <v>-0.57856750000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="4">
+        <v>11033</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1.817753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
+        <v>11038</v>
+      </c>
+      <c r="B116" s="1">
+        <v>-6.4201800000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="4">
+        <v>12028</v>
+      </c>
+      <c r="B117" s="1">
+        <v>-0.66468660000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
+        <v>12040</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.60499700000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
+        <v>12053</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.8708200000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
+        <v>12072</v>
+      </c>
+      <c r="B120" s="1">
+        <v>3.8454039999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
+        <v>12084</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2.2313860000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <v>12085</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.953857</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
+        <v>12089</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4.1497409999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <v>13005</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.7482329999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>13034</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1.893832</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
+        <v>13047</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.90990150000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="4">
+        <v>13066</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3.1891530000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
+        <v>13071</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.5951169999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="4">
+        <v>13078</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.365882</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="4">
+        <v>13087</v>
+      </c>
+      <c r="B130" s="1">
+        <v>2.0360749999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="4">
+        <v>14021</v>
+      </c>
+      <c r="B131" s="1">
+        <v>-0.35370119999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="4">
+        <v>14042</v>
+      </c>
+      <c r="B132" s="1">
+        <v>-9.4320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="4">
+        <v>14049</v>
+      </c>
+      <c r="B133" s="1">
+        <v>-3.5791849999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="4">
+        <v>14056</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.86208530000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="4">
+        <v>15005</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1.2745629999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="4">
+        <v>15011</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.49995529999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="4">
+        <v>15017</v>
+      </c>
+      <c r="B137" s="1">
+        <v>-1.260321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="4">
+        <v>15019</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1.207873</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="4">
+        <v>15022</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1.244956</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="4">
+        <v>15030</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.58787230000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="4">
+        <v>15032</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3.4160650000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="4">
+        <v>15036</v>
+      </c>
+      <c r="B142" s="1">
+        <v>-0.36608740000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="4">
+        <v>15058</v>
+      </c>
+      <c r="B143" s="1">
+        <v>-1.328576</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="4">
+        <v>15059</v>
+      </c>
+      <c r="B144" s="1">
+        <v>-0.38090230000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="4">
+        <v>15078</v>
+      </c>
+      <c r="B145" s="1">
+        <v>7.6654799999999995E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="4">
+        <v>15082</v>
+      </c>
+      <c r="B146" s="1">
+        <v>-0.98729789999999995</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="4">
+        <v>16078</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.8930579999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="4">
+        <v>16190</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1.437292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="4">
+        <v>16203</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1.4591339999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="4">
+        <v>17032</v>
+      </c>
+      <c r="B150" s="1">
+        <v>-3.2221920000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="4">
+        <v>17047</v>
+      </c>
+      <c r="B151" s="1">
+        <v>-0.20585149999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="4">
+        <v>17062</v>
+      </c>
+      <c r="B152" s="1">
+        <v>-3.1783100000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="4">
+        <v>17079</v>
+      </c>
+      <c r="B153" s="1">
+        <v>-0.40374549999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="4">
+        <v>17164</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4.3056520000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="4">
+        <v>17202</v>
+      </c>
+      <c r="B155" s="1">
+        <v>-0.14962619999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="4">
+        <v>18003</v>
+      </c>
+      <c r="B156" s="1">
+        <v>-7.7481300000000003E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="4">
+        <v>18014</v>
+      </c>
+      <c r="B157" s="1">
+        <v>-5.0471200000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="4">
+        <v>18017</v>
+      </c>
+      <c r="B158" s="1">
+        <v>-1.098133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="4">
+        <v>18022</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4.0405680000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="4">
+        <v>18057</v>
+      </c>
+      <c r="B160" s="1">
+        <v>-0.44884089999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="4">
+        <v>18062</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1.2191479999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="4">
+        <v>18087</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1.639033</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="4">
+        <v>18089</v>
+      </c>
+      <c r="B163" s="1">
+        <v>-0.14414660000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="4">
+        <v>18101</v>
+      </c>
+      <c r="B164" s="1">
+        <v>-7.0880600000000002E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="4">
+        <v>18127</v>
+      </c>
+      <c r="B165" s="1">
+        <v>-0.53128810000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="4">
+        <v>18145</v>
+      </c>
+      <c r="B166" s="1">
+        <v>-0.21758269999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="4">
+        <v>18150</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1.6083369999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="4">
+        <v>18173</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5.74531E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
+        <v>19024</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1.322951</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="4">
+        <v>19046</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0.68867149999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
+        <v>19130</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1.5886579999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
+        <v>19171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>-0.50205089999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="4">
+        <v>19326</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1.581677</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="4">
+        <v>20030</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.53115389999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="4">
+        <v>20040</v>
+      </c>
+      <c r="B175" s="1">
+        <v>-1.200888</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="4">
+        <v>20045</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.845791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="4">
+        <v>20069</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0.40173639999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="4">
+        <v>20903</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0.21393010000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="4">
+        <v>21005</v>
+      </c>
+      <c r="B179" s="1">
+        <v>-1.187767</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="4">
+        <v>21010</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1.7553669999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="4">
+        <v>21041</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1.5254989999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="4">
+        <v>21044</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.3734409999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="4">
+        <v>21050</v>
+      </c>
+      <c r="B183" s="1">
+        <v>-0.64314289999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="4">
+        <v>21060</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.4107700000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="4">
+        <v>23005</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.3783919</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="4">
+        <v>23010</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4.1736209999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="4">
+        <v>23012</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1.8205039999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="4">
+        <v>23050</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0.14279159999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="4">
+        <v>23055</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.9024939999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="4">
+        <v>23056</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0.57445880000000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="4">
+        <v>23059</v>
+      </c>
+      <c r="B191" s="1">
+        <v>-0.64829729999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="4">
+        <v>23060</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.7394970000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="4">
+        <v>23061</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4.9524309999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="4">
+        <v>23069</v>
+      </c>
+      <c r="B194" s="1">
+        <v>-0.68768309999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="4">
+        <v>23088</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.204472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="4">
+        <v>23092</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1.507495</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="4">
+        <v>23097</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2.4534180000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="4">
+        <v>24089</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1.6787749999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="4">
+        <v>24115</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2.7702640000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="4">
+        <v>24134</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.59091</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="4">
+        <v>24142</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.96968940000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="4">
+        <v>24222</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0.38603349999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="4">
+        <v>25025</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1.5478419999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="4">
+        <v>25040</v>
+      </c>
+      <c r="B204" s="1">
+        <v>2.6288239999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="4">
+        <v>27019</v>
+      </c>
+      <c r="B205" s="1">
+        <v>-0.36995210000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="4">
+        <v>27028</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0.91872690000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="4">
+        <v>27051</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0.31476789999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" s="4">
+        <v>27065</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0.96811190000000003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" s="4">
+        <v>27902</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0.79185110000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" s="4">
+        <v>28005</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0.52823109999999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" s="4">
+        <v>28006</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3.5241099999999997E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" s="4">
+        <v>28007</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0.54036580000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" s="4">
+        <v>28013</v>
+      </c>
+      <c r="B213" s="1">
+        <v>6.6071500000000005E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" s="4">
+        <v>28014</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.83604330000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" s="4">
+        <v>28022</v>
+      </c>
+      <c r="B215" s="1">
+        <v>-0.94985580000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" s="4">
+        <v>28040</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2.2352759999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" s="4">
+        <v>28045</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.58656929999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" s="4">
+        <v>28046</v>
+      </c>
+      <c r="B218" s="1">
+        <v>-1.170113</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" s="4">
+        <v>28047</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0.35145559999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
+        <v>28049</v>
+      </c>
+      <c r="B220" s="1">
+        <v>5.8274699999999999E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
+        <v>28054</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1.0877779999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" s="4">
+        <v>28058</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0.50045790000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" s="4">
+        <v>28061</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0.80411279999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" s="4">
+        <v>28065</v>
+      </c>
+      <c r="B224" s="1">
+        <v>-0.12748429999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" s="4">
+        <v>28066</v>
+      </c>
+      <c r="B225" s="1">
+        <v>2.5064359999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" s="4">
+        <v>28073</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0.99640790000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" s="4">
+        <v>28074</v>
+      </c>
+      <c r="B227" s="1">
+        <v>-0.27131949999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="4">
+        <v>28079</v>
+      </c>
+      <c r="B228" s="1">
+        <v>-0.51905800000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="4">
+        <v>28080</v>
+      </c>
+      <c r="B229" s="1">
+        <v>-0.60919040000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="4">
+        <v>28082</v>
+      </c>
+      <c r="B230" s="1">
+        <v>-0.4339037</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" s="4">
+        <v>28084</v>
+      </c>
+      <c r="B231" s="1">
+        <v>-0.50511439999999996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" s="4">
+        <v>28090</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0.70132689999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" s="4">
+        <v>28092</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.59230430000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" s="4">
+        <v>28096</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0.61543910000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" s="4">
+        <v>28104</v>
+      </c>
+      <c r="B235" s="1">
+        <v>-0.46446870000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" s="4">
+        <v>28106</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0.18698799999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" s="4">
+        <v>28113</v>
+      </c>
+      <c r="B237" s="1">
+        <v>-0.71030959999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" s="4">
+        <v>28115</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.94644890000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" s="4">
+        <v>28123</v>
+      </c>
+      <c r="B239" s="1">
+        <v>-0.30850499999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" s="4">
+        <v>28127</v>
+      </c>
+      <c r="B240" s="1">
+        <v>-0.2649146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="4">
+        <v>28130</v>
+      </c>
+      <c r="B241" s="1">
+        <v>-1.1346400000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" s="4">
+        <v>28134</v>
+      </c>
+      <c r="B242" s="1">
+        <v>-0.42780950000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" s="4">
+        <v>28146</v>
+      </c>
+      <c r="B243" s="1">
+        <v>3.5743450000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" s="4">
+        <v>28148</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1.013787</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" s="4">
+        <v>28149</v>
+      </c>
+      <c r="B245" s="1">
+        <v>-1.6545810000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" s="4">
+        <v>28152</v>
+      </c>
+      <c r="B246" s="1">
+        <v>0.78369</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" s="4">
+        <v>28160</v>
+      </c>
+      <c r="B247" s="1">
+        <v>-0.89659690000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" s="4">
+        <v>28161</v>
+      </c>
+      <c r="B248" s="1">
+        <v>0.23006260000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" s="4">
+        <v>28176</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2.3657339999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" s="4">
+        <v>28177</v>
+      </c>
+      <c r="B250" s="1">
+        <v>-0.71008159999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" s="4">
+        <v>28903</v>
+      </c>
+      <c r="B251" s="1">
+        <v>0.21878890000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252" s="4">
+        <v>29005</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0.42587360000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253" s="4">
+        <v>29007</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0.36970550000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254" s="4">
+        <v>29008</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0.1135297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255" s="4">
+        <v>29015</v>
+      </c>
+      <c r="B255" s="1">
+        <v>1.198053</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256" s="4">
+        <v>29025</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0.66347310000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257" s="4">
+        <v>29038</v>
+      </c>
+      <c r="B257" s="1">
+        <v>-1.0570820000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258" s="4">
+        <v>29051</v>
+      </c>
+      <c r="B258" s="1">
+        <v>-0.78512749999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259" s="4">
+        <v>29054</v>
+      </c>
+      <c r="B259" s="1">
+        <v>-0.38520589999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260" s="4">
+        <v>29058</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0.98284640000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261" s="4">
+        <v>29067</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.53651499999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262" s="4">
+        <v>29068</v>
+      </c>
+      <c r="B262" s="1">
+        <v>-0.36853829999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263" s="4">
+        <v>29069</v>
+      </c>
+      <c r="B263" s="1">
+        <v>-4.6560699999999997E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264" s="4">
+        <v>29070</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0.2050853</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265" s="4">
+        <v>29073</v>
+      </c>
+      <c r="B265" s="1">
+        <v>3.039965</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266" s="4">
+        <v>29075</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0.36631039999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267" s="4">
+        <v>29082</v>
+      </c>
+      <c r="B267" s="1">
+        <v>-0.5274392</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268" s="4">
+        <v>29084</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2.1755469999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269" s="4">
+        <v>29091</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1.008554</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270" s="4">
+        <v>29094</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0.38713340000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271" s="4">
+        <v>29901</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1.7169540000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272" s="4">
+        <v>30016</v>
+      </c>
+      <c r="B272" s="1">
+        <v>-0.39387230000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273" s="4">
+        <v>30022</v>
+      </c>
+      <c r="B273" s="1">
+        <v>-0.58100680000000005</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274" s="4">
+        <v>30024</v>
+      </c>
+      <c r="B274" s="1">
+        <v>-0.20692179999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275" s="4">
+        <v>30026</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0.63625849999999995</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276" s="4">
+        <v>30027</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0.68122090000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277" s="4">
+        <v>30030</v>
+      </c>
+      <c r="B277" s="1">
+        <v>1.149632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278" s="4">
+        <v>30035</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1.2073210000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279" s="4">
+        <v>30036</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0.52138739999999995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280" s="4">
+        <v>30037</v>
+      </c>
+      <c r="B280" s="1">
+        <v>3.2185199999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281" s="4">
+        <v>30043</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0.80751390000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282" s="4">
+        <v>30901</v>
+      </c>
+      <c r="B282" s="1">
+        <v>3.700116</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283" s="4">
+        <v>32019</v>
+      </c>
+      <c r="B283" s="1">
+        <v>4.2495120000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284" s="4">
+        <v>32054</v>
+      </c>
+      <c r="B284" s="1">
+        <v>2.1206800000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285" s="4">
+        <v>33002</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2.6966239999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286" s="4">
+        <v>33004</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0.237593</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287" s="4">
+        <v>33008</v>
+      </c>
+      <c r="B287" s="1">
+        <v>-4.52351E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288" s="4">
+        <v>33011</v>
+      </c>
+      <c r="B288" s="1">
+        <v>0.95822689999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289" s="4">
+        <v>33012</v>
+      </c>
+      <c r="B289" s="1">
+        <v>-0.18223690000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290" s="4">
+        <v>33014</v>
+      </c>
+      <c r="B290" s="1">
+        <v>9.5783400000000005E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291" s="4">
+        <v>33016</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0.63146270000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292" s="4">
+        <v>33020</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1.2703629999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293" s="4">
+        <v>33021</v>
+      </c>
+      <c r="B293" s="1">
+        <v>-1.569167</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294" s="4">
+        <v>33024</v>
+      </c>
+      <c r="B294" s="1">
+        <v>0.33019530000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295" s="4">
+        <v>33025</v>
+      </c>
+      <c r="B295" s="1">
+        <v>-0.15851170000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296" s="4">
+        <v>33026</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0.65858090000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297" s="4">
+        <v>33031</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1.6856450000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298" s="4">
+        <v>33032</v>
+      </c>
+      <c r="B298" s="1">
+        <v>0.99234080000000002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299" s="4">
+        <v>33034</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1.9635E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300" s="4">
+        <v>33035</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1.3435239999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301" s="4">
+        <v>33036</v>
+      </c>
+      <c r="B301" s="1">
+        <v>-0.2419028</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302" s="4">
+        <v>33040</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1.323394</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303" s="4">
+        <v>33041</v>
+      </c>
+      <c r="B303" s="1">
+        <v>-0.94122640000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304" s="4">
+        <v>33042</v>
+      </c>
+      <c r="B304" s="1">
+        <v>2.08863E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305" s="4">
+        <v>33044</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0.96286700000000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306" s="4">
+        <v>33045</v>
+      </c>
+      <c r="B306" s="1">
+        <v>0.39506760000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307" s="4">
+        <v>33051</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1.2777289999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308" s="4">
+        <v>33056</v>
+      </c>
+      <c r="B308" s="1">
+        <v>-0.64312879999999994</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309" s="4">
+        <v>33057</v>
+      </c>
+      <c r="B309" s="1">
+        <v>-0.51513520000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310" s="4">
+        <v>33060</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1.5822080000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311" s="4">
+        <v>33066</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1.091135</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312" s="4">
+        <v>33074</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0.9055086</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313" s="4">
+        <v>33076</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0.75652509999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314" s="4">
+        <v>34120</v>
+      </c>
+      <c r="B314" s="1">
+        <v>-0.22222169999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315" s="4">
+        <v>36017</v>
+      </c>
+      <c r="B315" s="1">
+        <v>7.2852500000000001E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316" s="4">
+        <v>36024</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1.941597</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317" s="4">
+        <v>36026</v>
+      </c>
+      <c r="B317" s="1">
+        <v>-0.20826169999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318" s="4">
+        <v>36033</v>
+      </c>
+      <c r="B318" s="1">
+        <v>-1.241984</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319" s="4">
+        <v>36038</v>
+      </c>
+      <c r="B319" s="1">
+        <v>-0.44420959999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320" s="4">
+        <v>36051</v>
+      </c>
+      <c r="B320" s="1">
+        <v>-1.694801</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321" s="4">
+        <v>36057</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0.27798220000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322" s="4">
+        <v>37107</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1.54512</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323" s="4">
+        <v>37274</v>
+      </c>
+      <c r="B323" s="1">
+        <v>-0.25039850000000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324" s="4">
+        <v>39002</v>
+      </c>
+      <c r="B324" s="1">
+        <v>0.90511209999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325" s="4">
+        <v>39012</v>
+      </c>
+      <c r="B325" s="1">
+        <v>-3.517163</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326" s="4">
+        <v>39016</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0.18071100000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327" s="4">
+        <v>39018</v>
+      </c>
+      <c r="B327" s="1">
+        <v>2.1247229999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328" s="4">
+        <v>39020</v>
+      </c>
+      <c r="B328" s="1">
+        <v>-1.0974740000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329" s="4">
+        <v>39025</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2.2366980000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330" s="4">
+        <v>39035</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1.821042</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331" s="4">
+        <v>39040</v>
+      </c>
+      <c r="B331" s="1">
+        <v>-1.4856480000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332" s="4">
+        <v>39052</v>
+      </c>
+      <c r="B332" s="1">
+        <v>2.3355839999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333" s="4">
+        <v>39061</v>
+      </c>
+      <c r="B333" s="1">
+        <v>-1.8631180000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334" s="4">
+        <v>39075</v>
+      </c>
+      <c r="B334" s="1">
+        <v>-3.9004E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335" s="4">
+        <v>39080</v>
+      </c>
+      <c r="B335" s="1">
+        <v>-6.8545999999999998E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336" s="4">
+        <v>39085</v>
+      </c>
+      <c r="B336" s="1">
+        <v>-0.27558899999999997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337" s="4">
+        <v>39087</v>
+      </c>
+      <c r="B337" s="1">
+        <v>0.72467479999999995</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338" s="4">
+        <v>39095</v>
+      </c>
+      <c r="B338" s="1">
+        <v>2.8531629999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339" s="4">
+        <v>40194</v>
+      </c>
+      <c r="B339" s="1">
+        <v>-0.28308820000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340" s="4">
+        <v>41004</v>
+      </c>
+      <c r="B340" s="1">
+        <v>-0.68835420000000003</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341" s="4">
+        <v>41007</v>
+      </c>
+      <c r="B341" s="1">
+        <v>2.1216279999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342" s="4">
+        <v>41018</v>
+      </c>
+      <c r="B342" s="1">
+        <v>-0.75291629999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343" s="4">
+        <v>41021</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1.3272949999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344" s="4">
+        <v>41024</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1.4876819999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345" s="4">
+        <v>41038</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1.666477</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346" s="4">
+        <v>41039</v>
+      </c>
+      <c r="B346" s="1">
+        <v>0.93379310000000004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347" s="4">
+        <v>41059</v>
+      </c>
+      <c r="B347" s="1">
+        <v>-0.1390817</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348" s="4">
+        <v>41060</v>
+      </c>
+      <c r="B348" s="1">
+        <v>-1.7732110000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349" s="4">
+        <v>41067</v>
+      </c>
+      <c r="B349" s="1">
+        <v>2.8658160000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350" s="4">
+        <v>41069</v>
+      </c>
+      <c r="B350" s="1">
+        <v>0.32874720000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351" s="4">
+        <v>41075</v>
+      </c>
+      <c r="B351" s="1">
+        <v>0.52877689999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352" s="4">
+        <v>41081</v>
+      </c>
+      <c r="B352" s="1">
+        <v>0.78629979999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353" s="4">
+        <v>41086</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1.2239709999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354" s="4">
+        <v>41091</v>
+      </c>
+      <c r="B354" s="1">
+        <v>0.10306070000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355" s="4">
+        <v>41093</v>
+      </c>
+      <c r="B355" s="1">
+        <v>-0.37787900000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356" s="4">
+        <v>41095</v>
+      </c>
+      <c r="B356" s="1">
+        <v>7.2255899999999998E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357" s="4">
+        <v>42173</v>
+      </c>
+      <c r="B357" s="1">
+        <v>0.26473459999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358" s="4">
+        <v>43038</v>
+      </c>
+      <c r="B358" s="1">
+        <v>-0.99846639999999998</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B359" s="1">
+        <v>-1.054314</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360" s="4">
+        <v>43148</v>
+      </c>
+      <c r="B360" s="1">
+        <v>2.0826169999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361" s="4">
+        <v>45002</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1.6855009999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1.9317070000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0.62024919999999995</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364" s="4">
+        <v>45023</v>
+      </c>
+      <c r="B364" s="1">
+        <v>2.9771869999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365" s="4">
+        <v>45025</v>
+      </c>
+      <c r="B365" s="1">
+        <v>1.5226949999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2.318279</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0.47666510000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368" s="4">
+        <v>45069</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2.87981</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369" s="4">
+        <v>45081</v>
+      </c>
+      <c r="B369" s="1">
+        <v>0.82922320000000005</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370" s="4">
+        <v>45085</v>
+      </c>
+      <c r="B370" s="1">
+        <v>1.879221</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B371" s="1">
+        <v>-0.47931750000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B372" s="1">
+        <v>2.9364180000000002</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373" s="4">
+        <v>45122</v>
+      </c>
+      <c r="B373" s="1">
+        <v>1.934974</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B374" s="1">
+        <v>-0.31361689999999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B375" s="1">
+        <v>0.73672320000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B376" s="1">
+        <v>2.912023</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2.7900870000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378" s="4">
+        <v>45165</v>
+      </c>
+      <c r="B378" s="1">
+        <v>0.88437259999999995</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B379" s="1">
+        <v>1.3051900000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B380" s="1">
+        <v>1.6655310000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381" s="4">
+        <v>45189</v>
+      </c>
+      <c r="B381" s="1">
+        <v>4.792745</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0.9163038</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383" s="4">
+        <v>45201</v>
+      </c>
+      <c r="B383" s="1">
+        <v>3.2447339999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B384" s="1">
+        <v>1.2769109999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385" s="4">
+        <v>45205</v>
+      </c>
+      <c r="B385" s="1">
+        <v>0.60770749999999996</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386" s="4">
+        <v>46005</v>
+      </c>
+      <c r="B386" s="1">
+        <v>1.865893</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387" s="4">
+        <v>46011</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2.8307699999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388" s="4">
+        <v>46017</v>
+      </c>
+      <c r="B388" s="1">
+        <v>0.43358980000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389" s="4">
+        <v>46021</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1.0511360000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B390" s="1">
+        <v>0.30013659999999998</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391" s="4">
+        <v>46054</v>
+      </c>
+      <c r="B391" s="1">
+        <v>-1.8853949999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392" s="4">
+        <v>46070</v>
+      </c>
+      <c r="B392" s="1">
+        <v>-1.8131269999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393" s="4">
+        <v>46085</v>
+      </c>
+      <c r="B393" s="1">
+        <v>3.1020400000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394" s="4">
+        <v>46094</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1.174304</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395" s="4">
+        <v>46105</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1.5971470000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396" s="4">
+        <v>46110</v>
+      </c>
+      <c r="B396" s="1">
+        <v>1.122913</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397" s="4">
+        <v>46111</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1.589494</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398" s="4">
+        <v>46131</v>
+      </c>
+      <c r="B398" s="1">
+        <v>1.6771309999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399" s="4">
+        <v>46143</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2.889357</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400" s="4">
+        <v>46145</v>
+      </c>
+      <c r="B400" s="1">
+        <v>1.907519</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401" s="4">
+        <v>46165</v>
+      </c>
+      <c r="B401" s="1">
+        <v>-0.62591799999999997</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402" s="4">
+        <v>46171</v>
+      </c>
+      <c r="B402" s="1">
+        <v>3.5558830000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403" s="4">
+        <v>46172</v>
+      </c>
+      <c r="B403" s="1">
+        <v>-0.24764510000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404" s="4">
+        <v>46178</v>
+      </c>
+      <c r="B404" s="1">
+        <v>-2.3873009999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405" s="4">
+        <v>46181</v>
+      </c>
+      <c r="B405" s="1">
+        <v>-1.7267000000000001E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406" s="4">
+        <v>46183</v>
+      </c>
+      <c r="B406" s="1">
+        <v>0.86300129999999997</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407" s="4">
+        <v>46186</v>
+      </c>
+      <c r="B407" s="1">
+        <v>1.227576</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408" s="4">
+        <v>46199</v>
+      </c>
+      <c r="B408" s="1">
+        <v>0.15207950000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409" s="4">
+        <v>46214</v>
+      </c>
+      <c r="B409" s="1">
+        <v>3.986253</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410" s="4">
+        <v>46220</v>
+      </c>
+      <c r="B410" s="1">
+        <v>1.7454350000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411" s="4">
+        <v>46230</v>
+      </c>
+      <c r="B411" s="1">
+        <v>3.3530090000000001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412" s="4">
+        <v>46238</v>
+      </c>
+      <c r="B412" s="1">
+        <v>2.0720510000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413" s="4">
+        <v>46250</v>
+      </c>
+      <c r="B413" s="1">
+        <v>1.4405380000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414" s="4">
+        <v>46255</v>
+      </c>
+      <c r="B414" s="1">
+        <v>3.8995150000000001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415" s="4">
+        <v>47076</v>
+      </c>
+      <c r="B415" s="1">
+        <v>4.9680410000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416" s="4">
+        <v>47186</v>
+      </c>
+      <c r="B416" s="1">
+        <v>3.25603E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417" s="4">
+        <v>48002</v>
+      </c>
+      <c r="B417" s="1">
+        <v>-0.93802249999999998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418" s="4">
+        <v>48013</v>
+      </c>
+      <c r="B418" s="1">
+        <v>-0.42430050000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419" s="4">
+        <v>48017</v>
+      </c>
+      <c r="B419" s="1">
+        <v>-1.8708899999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420" s="4">
+        <v>48020</v>
+      </c>
+      <c r="B420" s="1">
+        <v>1.2549680000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421" s="4">
+        <v>48054</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2.2842509999999998</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422" s="4">
+        <v>48078</v>
+      </c>
+      <c r="B422" s="1">
+        <v>3.0834009999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423" s="4">
+        <v>48080</v>
+      </c>
+      <c r="B423" s="1">
+        <v>-0.39183820000000003</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424" s="4">
+        <v>48082</v>
+      </c>
+      <c r="B424" s="1">
+        <v>1.164987</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425" s="4">
+        <v>48084</v>
+      </c>
+      <c r="B425" s="1">
+        <v>3.7807819999999999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426" s="4">
+        <v>49275</v>
+      </c>
+      <c r="B426" s="1">
+        <v>-0.31384970000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J426"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.93644950000000005</v>
+      </c>
+      <c r="C2">
+        <v>-0.82695949999999996</v>
+      </c>
+      <c r="D2">
+        <v>-2.0899000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.44018360000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.13356570000000001</v>
+      </c>
+      <c r="G2">
+        <v>-0.3846773</v>
+      </c>
+      <c r="H2">
+        <v>-0.3604194</v>
+      </c>
+      <c r="I2">
+        <v>-0.61071790000000004</v>
+      </c>
+      <c r="J2">
+        <v>5.450526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.93270779999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.1695380000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2745245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>2037</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.4472899999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>2073</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.61974459999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>2081</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.1551960000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.038284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>3011</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.49076950000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>3014</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6538809999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>3019</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.7139170000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>3031</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.36792829999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>3047</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.1744479999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>3049</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.275938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>3050</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.41734870000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>3053</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.9456419999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>3065</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.902501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>3066</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.6254710000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>3069</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.0704349999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>3082</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.668366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>3090</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.30076619999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>3094</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.9085000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.115666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>3121</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.4093870000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>3122</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.9660396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>3128</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0089300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>3133</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.88960439999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>3139</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.2344550000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>4013</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.19387309999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>4029</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.184842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>4032</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-0.84123400000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>4079</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-0.28459129999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>4100</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.5054180000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>4101</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.6711E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>4102</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.723309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>4902</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.162957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>6011</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.7074129999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>6015</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-0.13619510000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>6044</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.64743720000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>6060</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.295946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>6083</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.3352792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>6153</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.9148769999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>6158</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.5345709999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>8015</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-0.69783899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>8019</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-1.227498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>8051</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.760419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>8056</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-0.46345009999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>8073</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-0.16307050000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>8077</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.73368840000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>8089</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.374064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <v>8096</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.1124261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>8101</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.072702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>8105</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.636101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>8113</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-0.48298839999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>8118</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-1.467204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>8121</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-0.53713169999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>8123</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-0.7922382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>8125</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1.6089990000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>8136</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-7.3199100000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>8147</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-0.68180010000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>8163</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4.6258599999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>8169</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-0.42993959999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <v>8172</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-1.84345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>8180</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-0.38513540000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <v>8181</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-0.93447630000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
+        <v>8183</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.8489740000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <v>8184</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.65136039999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
+        <v>8187</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-0.1298078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
+        <v>8205</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-0.24681729999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <v>8211</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.1453009999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <v>8214</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.6147309999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <v>8231</v>
+      </c>
+      <c r="B73" s="1">
+        <v>-4.1062899999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <v>8245</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2.9499279999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <v>8250</v>
+      </c>
+      <c r="B75" s="1">
+        <v>-0.1153781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <v>8252</v>
+      </c>
+      <c r="B76" s="1">
+        <v>-4.6607299999999997E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>8260</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.5189339999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <v>8262</v>
+      </c>
+      <c r="B78" s="1">
+        <v>-0.54970439999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <v>8263</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3.7289999999999997E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>8266</v>
+      </c>
+      <c r="B80" s="1">
+        <v>-0.59752130000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <v>8270</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.96342349999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <v>8279</v>
+      </c>
+      <c r="B82" s="1">
+        <v>-0.23530780000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>8301</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.3342860000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <v>8305</v>
+      </c>
+      <c r="B84" s="1">
+        <v>-1.0657559999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <v>8307</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3.068946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>9018</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.72284150000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <v>9059</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.6400220000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>9219</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.31082300000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B89" s="1">
+        <v>-0.7276627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <v>10037</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.4647030000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <v>10067</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3.777142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>10107</v>
+      </c>
+      <c r="B92" s="1">
+        <v>-0.4609646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <v>10128</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.9904326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <v>10131</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3.9371239999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <v>10148</v>
+      </c>
+      <c r="B95" s="1">
+        <v>-0.1147014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
+        <v>10180</v>
+      </c>
+      <c r="B96" s="1">
+        <v>-0.30898330000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <v>10192</v>
+      </c>
+      <c r="B97" s="1">
+        <v>-0.47433720000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <v>10195</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.458734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <v>10203</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.67192560000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B100" s="1">
+        <v>-0.2926704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <v>11004</v>
+      </c>
+      <c r="B101" s="1">
+        <v>-1.6808110000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
+        <v>11007</v>
+      </c>
+      <c r="B102" s="1">
+        <v>-0.50184010000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <v>11008</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.1859596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <v>11012</v>
+      </c>
+      <c r="B104" s="1">
+        <v>-0.97393320000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
+        <v>11015</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.7105146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
+        <v>11016</v>
+      </c>
+      <c r="B106" s="1">
+        <v>-0.52891350000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
+        <v>11020</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.9933610000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="4">
+        <v>11022</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.26542080000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="4">
+        <v>11023</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.47250540000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
+        <v>11027</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.57599959999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="4">
+        <v>11028</v>
+      </c>
+      <c r="B111" s="1">
+        <v>-8.5698700000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="4">
+        <v>11030</v>
+      </c>
+      <c r="B112" s="1">
+        <v>-0.65687580000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
+        <v>11031</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1.634865</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="4">
+        <v>11032</v>
+      </c>
+      <c r="B114" s="1">
+        <v>-2.05849E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="4">
+        <v>11033</v>
+      </c>
+      <c r="B115" s="1">
+        <v>-0.63979339999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
+        <v>11038</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.58344700000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="4">
+        <v>12028</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.9480979999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
+        <v>12040</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3.8738519999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
+        <v>12053</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.2214610000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
+        <v>12072</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1.928863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
+        <v>12084</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4.1243150000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <v>12085</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.700529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
+        <v>12089</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.9036999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <v>13005</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.84939240000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>13034</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3.1280739999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
+        <v>13047</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1.757728</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="4">
+        <v>13066</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.2774730000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
+        <v>13071</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2.0112809999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="4">
+        <v>13078</v>
+      </c>
+      <c r="B129" s="1">
+        <v>-0.2750628</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="4">
+        <v>13087</v>
+      </c>
+      <c r="B130" s="1">
+        <v>-1.12485E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="4">
+        <v>14021</v>
+      </c>
+      <c r="B131" s="1">
+        <v>-3.2986520000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="4">
+        <v>14042</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.93757480000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="4">
+        <v>14049</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.0691299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="4">
+        <v>14056</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.232075</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="4">
+        <v>15005</v>
+      </c>
+      <c r="B135" s="1">
+        <v>-1.277371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="4">
+        <v>15011</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1.1222890000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="4">
+        <v>15017</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1.4599979999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="4">
+        <v>15019</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.59564329999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="4">
+        <v>15022</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3.4633470000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="4">
+        <v>15030</v>
+      </c>
+      <c r="B140" s="1">
+        <v>-0.17364869999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="4">
+        <v>15032</v>
+      </c>
+      <c r="B141" s="1">
+        <v>-0.35210000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="4">
+        <v>15036</v>
+      </c>
+      <c r="B142" s="1">
+        <v>-0.19498950000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="4">
+        <v>15058</v>
+      </c>
+      <c r="B143" s="1">
+        <v>-1.195918</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="4">
+        <v>15059</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1.9526429999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="4">
+        <v>15078</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1.318236</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="4">
+        <v>15082</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1.292033</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="4">
+        <v>16078</v>
+      </c>
+      <c r="B147" s="1">
+        <v>-3.089156</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="4">
+        <v>16190</v>
+      </c>
+      <c r="B148" s="1">
+        <v>-5.15112E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="4">
+        <v>16203</v>
+      </c>
+      <c r="B149" s="1">
+        <v>-2.90557</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="4">
+        <v>17032</v>
+      </c>
+      <c r="B150" s="1">
+        <v>-0.38745190000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="4">
+        <v>17047</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4.3197929999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="4">
+        <v>17062</v>
+      </c>
+      <c r="B152" s="1">
+        <v>-2.0847000000000001E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="4">
+        <v>17079</v>
+      </c>
+      <c r="B153" s="1">
+        <v>-8.5872299999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="4">
+        <v>17164</v>
+      </c>
+      <c r="B154" s="1">
+        <v>-9.7397800000000007E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="4">
+        <v>17202</v>
+      </c>
+      <c r="B155" s="1">
+        <v>-1.1534279999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="4">
+        <v>18003</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3.829243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="4">
+        <v>18014</v>
+      </c>
+      <c r="B157" s="1">
+        <v>-0.49325950000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="4">
+        <v>18017</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1.2260800000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="4">
+        <v>18022</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1.6873610000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="4">
+        <v>18057</v>
+      </c>
+      <c r="B160" s="1">
+        <v>-0.34407149999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="4">
+        <v>18062</v>
+      </c>
+      <c r="B161" s="1">
+        <v>-0.12621170000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="4">
+        <v>18087</v>
+      </c>
+      <c r="B162" s="1">
+        <v>-0.60009950000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="4">
+        <v>18089</v>
+      </c>
+      <c r="B163" s="1">
+        <v>-0.41491479999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="4">
+        <v>18101</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1.4848060000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="4">
+        <v>18127</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.19598960000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="4">
+        <v>18145</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1.360382</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="4">
+        <v>18150</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0.64315670000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="4">
+        <v>18173</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1.607267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
+        <v>19024</v>
+      </c>
+      <c r="B169" s="1">
+        <v>-0.48458390000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="4">
+        <v>19046</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1.5162690000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
+        <v>19130</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0.58954510000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
+        <v>19171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>-1.2036549999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="4">
+        <v>19326</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1.751868</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="4">
+        <v>20030</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0.66347769999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="4">
+        <v>20040</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0.1188845</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="4">
+        <v>20045</v>
+      </c>
+      <c r="B176" s="1">
+        <v>-1.258359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="4">
+        <v>20069</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2.1460330000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="4">
+        <v>20903</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.5660160000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="4">
+        <v>21005</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.4401250000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="4">
+        <v>21010</v>
+      </c>
+      <c r="B180" s="1">
+        <v>-0.69101000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="4">
+        <v>21041</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1.389672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="4">
+        <v>21044</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0.43005359999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="4">
+        <v>21050</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4.1253320000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="4">
+        <v>21060</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.5843400000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="4">
+        <v>23005</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0.216618</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="4">
+        <v>23010</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.9723949999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="4">
+        <v>23012</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0.61121099999999995</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="4">
+        <v>23050</v>
+      </c>
+      <c r="B188" s="1">
+        <v>-0.65009969999999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="4">
+        <v>23055</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.8307359999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="4">
+        <v>23056</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4.9943059999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="4">
+        <v>23059</v>
+      </c>
+      <c r="B191" s="1">
+        <v>-0.67383380000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="4">
+        <v>23060</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.267001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="4">
+        <v>23061</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1.593758</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="4">
+        <v>23069</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2.3555990000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="4">
+        <v>23088</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.744329</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="4">
+        <v>23092</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2.9503110000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="4">
+        <v>23097</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1.764024</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="4">
+        <v>24089</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0.91291140000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="4">
+        <v>24115</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0.31791599999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="4">
+        <v>24134</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.5236069999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="4">
+        <v>24142</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2.688418</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="4">
+        <v>24222</v>
+      </c>
+      <c r="B202" s="1">
+        <v>-0.28105029999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="4">
+        <v>25025</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0.92425860000000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="4">
+        <v>25040</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0.31901360000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="4">
+        <v>27019</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0.91134099999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="4">
+        <v>27028</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0.74912279999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="4">
+        <v>27051</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0.51390760000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" s="4">
+        <v>27065</v>
+      </c>
+      <c r="B208" s="1">
+        <v>7.6650399999999994E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" s="4">
+        <v>27902</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0.59013409999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" s="4">
+        <v>28005</v>
+      </c>
+      <c r="B210" s="1">
+        <v>4.9469600000000002E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" s="4">
+        <v>28006</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0.80507309999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" s="4">
+        <v>28007</v>
+      </c>
+      <c r="B212" s="1">
+        <v>-1.0304789999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" s="4">
+        <v>28013</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2.1734369999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" s="4">
+        <v>28014</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.56700700000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" s="4">
+        <v>28022</v>
+      </c>
+      <c r="B215" s="1">
+        <v>-1.1447689999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" s="4">
+        <v>28040</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0.31646600000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" s="4">
+        <v>28045</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.19292480000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" s="4">
+        <v>28046</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0.91075859999999997</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" s="4">
+        <v>28047</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0.57775799999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
+        <v>28049</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0.72389099999999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
+        <v>28054</v>
+      </c>
+      <c r="B221" s="1">
+        <v>-9.6188200000000001E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" s="4">
+        <v>28058</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2.6118359999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" s="4">
+        <v>28061</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0.93453509999999995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" s="4">
+        <v>28065</v>
+      </c>
+      <c r="B224" s="1">
+        <v>-0.1232639</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" s="4">
+        <v>28066</v>
+      </c>
+      <c r="B225" s="1">
+        <v>-8.7028400000000006E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" s="4">
+        <v>28073</v>
+      </c>
+      <c r="B226" s="1">
+        <v>-0.71959810000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" s="4">
+        <v>28074</v>
+      </c>
+      <c r="B227" s="1">
+        <v>-0.56283240000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="4">
+        <v>28079</v>
+      </c>
+      <c r="B228" s="1">
+        <v>-0.36374689999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="4">
+        <v>28080</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0.75844180000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="4">
+        <v>28082</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0.55598709999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" s="4">
+        <v>28084</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0.41660589999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" s="4">
+        <v>28090</v>
+      </c>
+      <c r="B232" s="1">
+        <v>-0.54794109999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" s="4">
+        <v>28092</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.20924219999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" s="4">
+        <v>28096</v>
+      </c>
+      <c r="B234" s="1">
+        <v>-0.8557477</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" s="4">
+        <v>28104</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0.95528219999999997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" s="4">
+        <v>28106</v>
+      </c>
+      <c r="B236" s="1">
+        <v>-0.35465259999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" s="4">
+        <v>28113</v>
+      </c>
+      <c r="B237" s="1">
+        <v>-0.51897409999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" s="4">
+        <v>28115</v>
+      </c>
+      <c r="B238" s="1">
+        <v>-1.133278</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" s="4">
+        <v>28123</v>
+      </c>
+      <c r="B239" s="1">
+        <v>-0.48684500000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" s="4">
+        <v>28127</v>
+      </c>
+      <c r="B240" s="1">
+        <v>3.634998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="4">
+        <v>28130</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0.97158900000000004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" s="4">
+        <v>28134</v>
+      </c>
+      <c r="B242" s="1">
+        <v>-1.8024100000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" s="4">
+        <v>28146</v>
+      </c>
+      <c r="B243" s="1">
+        <v>0.91699529999999996</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" s="4">
+        <v>28148</v>
+      </c>
+      <c r="B244" s="1">
+        <v>-0.96170770000000005</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" s="4">
+        <v>28149</v>
+      </c>
+      <c r="B245" s="1">
+        <v>0.10798720000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" s="4">
+        <v>28152</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2.157124</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247" s="4">
+        <v>28160</v>
+      </c>
+      <c r="B247" s="1">
+        <v>-0.74233459999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248" s="4">
+        <v>28161</v>
+      </c>
+      <c r="B248" s="1">
+        <v>-0.17449219999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249" s="4">
+        <v>28176</v>
+      </c>
+      <c r="B249" s="1">
+        <v>0.2877615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250" s="4">
+        <v>28177</v>
+      </c>
+      <c r="B250" s="1">
+        <v>0.1929604</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251" s="4">
+        <v>28903</v>
+      </c>
+      <c r="B251" s="1">
+        <v>9.5223500000000003E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252" s="4">
+        <v>29005</v>
+      </c>
+      <c r="B252" s="1">
+        <v>0.91284449999999995</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253" s="4">
+        <v>29007</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0.67394140000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254" s="4">
+        <v>29008</v>
+      </c>
+      <c r="B254" s="1">
+        <v>-1.0505979999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255" s="4">
+        <v>29015</v>
+      </c>
+      <c r="B255" s="1">
+        <v>-0.8318584</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256" s="4">
+        <v>29025</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0.4819348</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257" s="4">
+        <v>29038</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1.0921970000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258" s="4">
+        <v>29051</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0.62628130000000004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259" s="4">
+        <v>29054</v>
+      </c>
+      <c r="B259" s="1">
+        <v>-0.33578770000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260" s="4">
+        <v>29058</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0.1117889</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261" s="4">
+        <v>29067</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.27049420000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262" s="4">
+        <v>29068</v>
+      </c>
+      <c r="B262" s="1">
+        <v>3.0669140000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263" s="4">
+        <v>29069</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0.30894850000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264" s="4">
+        <v>29070</v>
+      </c>
+      <c r="B264" s="1">
+        <v>-0.5222194</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265" s="4">
+        <v>29073</v>
+      </c>
+      <c r="B265" s="1">
+        <v>2.1070479999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266" s="4">
+        <v>29075</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1.0207120000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267" s="4">
+        <v>29082</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0.25588179999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268" s="4">
+        <v>29084</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1.6695260000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269" s="4">
+        <v>29091</v>
+      </c>
+      <c r="B269" s="1">
+        <v>-0.46342339999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270" s="4">
+        <v>29094</v>
+      </c>
+      <c r="B270" s="1">
+        <v>-0.65211459999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271" s="4">
+        <v>29901</v>
+      </c>
+      <c r="B271" s="1">
+        <v>-0.45347900000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272" s="4">
+        <v>30016</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0.77938600000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273" s="4">
+        <v>30022</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0.78245229999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274" s="4">
+        <v>30024</v>
+      </c>
+      <c r="B274" s="1">
+        <v>1.110228</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275" s="4">
+        <v>30026</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1.136409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276" s="4">
+        <v>30027</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0.44754549999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277" s="4">
+        <v>30030</v>
+      </c>
+      <c r="B277" s="1">
+        <v>3.2360630000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278" s="4">
+        <v>30035</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0.63292230000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279" s="4">
+        <v>30036</v>
+      </c>
+      <c r="B279" s="1">
+        <v>3.4623020000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280" s="4">
+        <v>30037</v>
+      </c>
+      <c r="B280" s="1">
+        <v>4.2362640000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281" s="4">
+        <v>30043</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2.1185710000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282" s="4">
+        <v>30901</v>
+      </c>
+      <c r="B282" s="1">
+        <v>2.896954</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283" s="4">
+        <v>32019</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0.34325739999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284" s="4">
+        <v>32054</v>
+      </c>
+      <c r="B284" s="1">
+        <v>-0.23626820000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285" s="4">
+        <v>33002</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1.010392</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286" s="4">
+        <v>33004</v>
+      </c>
+      <c r="B286" s="1">
+        <v>-0.12618879999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287" s="4">
+        <v>33008</v>
+      </c>
+      <c r="B287" s="1">
+        <v>3.2078200000000001E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288" s="4">
+        <v>33011</v>
+      </c>
+      <c r="B288" s="1">
+        <v>0.69125270000000005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289" s="4">
+        <v>33012</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1.2529950000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290" s="4">
+        <v>33014</v>
+      </c>
+      <c r="B290" s="1">
+        <v>-1.4710840000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291" s="4">
+        <v>33016</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0.3206041</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292" s="4">
+        <v>33020</v>
+      </c>
+      <c r="B292" s="1">
+        <v>-0.2452338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293" s="4">
+        <v>33021</v>
+      </c>
+      <c r="B293" s="1">
+        <v>0.60739339999999997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294" s="4">
+        <v>33024</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1.6991499999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295" s="4">
+        <v>33025</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1.0302279999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296" s="4">
+        <v>33026</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0.12708649999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297" s="4">
+        <v>33031</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1.3085819999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298" s="4">
+        <v>33032</v>
+      </c>
+      <c r="B298" s="1">
+        <v>-0.25423010000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299" s="4">
+        <v>33034</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1.265193</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300" s="4">
+        <v>33035</v>
+      </c>
+      <c r="B300" s="1">
+        <v>-0.86340139999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301" s="4">
+        <v>33036</v>
+      </c>
+      <c r="B301" s="1">
+        <v>6.3722399999999998E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302" s="4">
+        <v>33040</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0.98811579999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303" s="4">
+        <v>33041</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0.41208709999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304" s="4">
+        <v>33042</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1.3292820000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305" s="4">
+        <v>33044</v>
+      </c>
+      <c r="B305" s="1">
+        <v>-0.68917530000000005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306" s="4">
+        <v>33045</v>
+      </c>
+      <c r="B306" s="1">
+        <v>-0.50883920000000005</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307" s="4">
+        <v>33051</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1.612141</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308" s="4">
+        <v>33056</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1.003865</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309" s="4">
+        <v>33057</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1.0268349999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310" s="4">
+        <v>33060</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0.72004480000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311" s="4">
+        <v>33066</v>
+      </c>
+      <c r="B311" s="1">
+        <v>-0.1426173</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312" s="4">
+        <v>33074</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0.10404529999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313" s="4">
+        <v>33076</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1.9694370000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314" s="4">
+        <v>34120</v>
+      </c>
+      <c r="B314" s="1">
+        <v>-6.5859500000000001E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315" s="4">
+        <v>36017</v>
+      </c>
+      <c r="B315" s="1">
+        <v>-1.477484</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316" s="4">
+        <v>36024</v>
+      </c>
+      <c r="B316" s="1">
+        <v>-0.41312720000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317" s="4">
+        <v>36026</v>
+      </c>
+      <c r="B317" s="1">
+        <v>-1.374539</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318" s="4">
+        <v>36033</v>
+      </c>
+      <c r="B318" s="1">
+        <v>0.45610040000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319" s="4">
+        <v>36038</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1.772991</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320" s="4">
+        <v>36051</v>
+      </c>
+      <c r="B320" s="1">
+        <v>-0.15925059999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321" s="4">
+        <v>36057</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0.7643567</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322" s="4">
+        <v>37107</v>
+      </c>
+      <c r="B322" s="1">
+        <v>-0.84058080000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323" s="4">
+        <v>37274</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0.1253475</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324" s="4">
+        <v>39002</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2.235754</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325" s="4">
+        <v>39012</v>
+      </c>
+      <c r="B325" s="1">
+        <v>-1.0838159999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326" s="4">
+        <v>39016</v>
+      </c>
+      <c r="B326" s="1">
+        <v>2.1440250000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327" s="4">
+        <v>39018</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1.961857</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328" s="4">
+        <v>39020</v>
+      </c>
+      <c r="B328" s="1">
+        <v>-1.252704</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329" s="4">
+        <v>39025</v>
+      </c>
+      <c r="B329" s="1">
+        <v>2.278187</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330" s="4">
+        <v>39035</v>
+      </c>
+      <c r="B330" s="1">
+        <v>-1.66622</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331" s="4">
+        <v>39040</v>
+      </c>
+      <c r="B331" s="1">
+        <v>0.2237576</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332" s="4">
+        <v>39052</v>
+      </c>
+      <c r="B332" s="1">
+        <v>0.1228945</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333" s="4">
+        <v>39061</v>
+      </c>
+      <c r="B333" s="1">
+        <v>-0.41139239999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334" s="4">
+        <v>39075</v>
+      </c>
+      <c r="B334" s="1">
+        <v>0.69294920000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335" s="4">
+        <v>39080</v>
+      </c>
+      <c r="B335" s="1">
+        <v>3.094249</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336" s="4">
+        <v>39085</v>
+      </c>
+      <c r="B336" s="1">
+        <v>-0.47344540000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337" s="4">
+        <v>39087</v>
+      </c>
+      <c r="B337" s="1">
+        <v>-6.5093E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338" s="4">
+        <v>39095</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1.9497009999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339" s="4">
+        <v>40194</v>
+      </c>
+      <c r="B339" s="1">
+        <v>-0.78517800000000004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340" s="4">
+        <v>41004</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1.4097519999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341" s="4">
+        <v>41007</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1.5923579999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342" s="4">
+        <v>41018</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1.6564030000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343" s="4">
+        <v>41021</v>
+      </c>
+      <c r="B343" s="1">
+        <v>0.95600719999999995</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344" s="4">
+        <v>41024</v>
+      </c>
+      <c r="B344" s="1">
+        <v>-0.29244550000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345" s="4">
+        <v>41038</v>
+      </c>
+      <c r="B345" s="1">
+        <v>-1.7002470000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346" s="4">
+        <v>41039</v>
+      </c>
+      <c r="B346" s="1">
+        <v>2.9941490000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347" s="4">
+        <v>41059</v>
+      </c>
+      <c r="B347" s="1">
+        <v>0.4770953</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348" s="4">
+        <v>41060</v>
+      </c>
+      <c r="B348" s="1">
+        <v>0.61917869999999997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349" s="4">
+        <v>41067</v>
+      </c>
+      <c r="B349" s="1">
+        <v>0.80192370000000002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350" s="4">
+        <v>41069</v>
+      </c>
+      <c r="B350" s="1">
+        <v>1.285803</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351" s="4">
+        <v>41075</v>
+      </c>
+      <c r="B351" s="1">
+        <v>0.29168090000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352" s="4">
+        <v>41081</v>
+      </c>
+      <c r="B352" s="1">
+        <v>-0.31345790000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353" s="4">
+        <v>41086</v>
+      </c>
+      <c r="B353" s="1">
+        <v>-7.7152200000000004E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354" s="4">
+        <v>41091</v>
+      </c>
+      <c r="B354" s="1">
+        <v>0.26950299999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355" s="4">
+        <v>41093</v>
+      </c>
+      <c r="B355" s="1">
+        <v>-0.93300870000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356" s="4">
+        <v>41095</v>
+      </c>
+      <c r="B356" s="1">
+        <v>-0.96268620000000005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357" s="4">
+        <v>42173</v>
+      </c>
+      <c r="B357" s="1">
+        <v>2.2412570000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358" s="4">
+        <v>43038</v>
+      </c>
+      <c r="B358" s="1">
+        <v>1.62863</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359" s="4">
+        <v>43123</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1.757101</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360" s="4">
+        <v>43148</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0.58594230000000003</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361" s="4">
+        <v>45002</v>
+      </c>
+      <c r="B361" s="1">
+        <v>2.8083619999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1.4984440000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B363" s="1">
+        <v>2.2486190000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364" s="4">
+        <v>45023</v>
+      </c>
+      <c r="B364" s="1">
+        <v>0.45548559999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365" s="4">
+        <v>45025</v>
+      </c>
+      <c r="B365" s="1">
+        <v>2.730315</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B366" s="1">
+        <v>0.78404180000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2.9047459999999998</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368" s="4">
+        <v>45069</v>
+      </c>
+      <c r="B368" s="1">
+        <v>-0.38405159999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369" s="4">
+        <v>45081</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2.9012180000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370" s="4">
+        <v>45085</v>
+      </c>
+      <c r="B370" s="1">
+        <v>1.8752390000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B371" s="1">
+        <v>-0.51814959999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B372" s="1">
+        <v>0.61427989999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373" s="4">
+        <v>45122</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2.8212760000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2.6918190000000002</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B375" s="1">
+        <v>1.467695</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B376" s="1">
+        <v>1.456609</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B377" s="1">
+        <v>1.576049</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378" s="4">
+        <v>45165</v>
+      </c>
+      <c r="B378" s="1">
+        <v>4.7111539999999996</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B379" s="1">
+        <v>1.005147</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B380" s="1">
+        <v>3.147996</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381" s="4">
+        <v>45189</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1.3112710000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B382" s="1">
+        <v>0.5830497</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383" s="4">
+        <v>45201</v>
+      </c>
+      <c r="B383" s="1">
+        <v>2.0252379999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B384" s="1">
+        <v>2.9089499999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385" s="4">
+        <v>45205</v>
+      </c>
+      <c r="B385" s="1">
+        <v>0.52429539999999997</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386" s="4">
+        <v>46005</v>
+      </c>
+      <c r="B386" s="1">
+        <v>0.93619719999999995</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387" s="4">
+        <v>46011</v>
+      </c>
+      <c r="B387" s="1">
+        <v>0.49315940000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388" s="4">
+        <v>46017</v>
+      </c>
+      <c r="B388" s="1">
+        <v>-1.673373</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389" s="4">
+        <v>46021</v>
+      </c>
+      <c r="B389" s="1">
+        <v>-1.834519</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390" s="4">
+        <v>46048</v>
+      </c>
+      <c r="B390" s="1">
+        <v>3.0769090000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391" s="4">
+        <v>46054</v>
+      </c>
+      <c r="B391" s="1">
+        <v>1.13304</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392" s="4">
+        <v>46070</v>
+      </c>
+      <c r="B392" s="1">
+        <v>1.730091</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393" s="4">
+        <v>46085</v>
+      </c>
+      <c r="B393" s="1">
+        <v>0.91459190000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394" s="4">
+        <v>46094</v>
+      </c>
+      <c r="B394" s="1">
+        <v>1.5657190000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395" s="4">
+        <v>46105</v>
+      </c>
+      <c r="B395" s="1">
+        <v>1.7425250000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396" s="4">
+        <v>46110</v>
+      </c>
+      <c r="B396" s="1">
+        <v>3.1840459999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397" s="4">
+        <v>46111</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1.870252</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398" s="4">
+        <v>46131</v>
+      </c>
+      <c r="B398" s="1">
+        <v>-0.68205159999999998</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399" s="4">
+        <v>46143</v>
+      </c>
+      <c r="B399" s="1">
+        <v>3.6494840000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400" s="4">
+        <v>46145</v>
+      </c>
+      <c r="B400" s="1">
+        <v>-0.4810104</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401" s="4">
+        <v>46165</v>
+      </c>
+      <c r="B401" s="1">
+        <v>-4.1387599999999997E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402" s="4">
+        <v>46171</v>
+      </c>
+      <c r="B402" s="1">
+        <v>0.80960379999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403" s="4">
+        <v>46172</v>
+      </c>
+      <c r="B403" s="1">
+        <v>1.150501</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404" s="4">
+        <v>46178</v>
+      </c>
+      <c r="B404" s="1">
+        <v>-1.0620299999999999E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405" s="4">
+        <v>46181</v>
+      </c>
+      <c r="B405" s="1">
+        <v>3.9424109999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406" s="4">
+        <v>46183</v>
+      </c>
+      <c r="B406" s="1">
+        <v>1.7301489999999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407" s="4">
+        <v>46186</v>
+      </c>
+      <c r="B407" s="1">
+        <v>3.365631</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408" s="4">
+        <v>46199</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2.0808200000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409" s="4">
+        <v>46214</v>
+      </c>
+      <c r="B409" s="1">
+        <v>1.599691</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410" s="4">
+        <v>46220</v>
+      </c>
+      <c r="B410" s="1">
+        <v>3.802101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411" s="4">
+        <v>46230</v>
+      </c>
+      <c r="B411" s="1">
+        <v>5.0331780000000004</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412" s="4">
+        <v>46238</v>
+      </c>
+      <c r="B412" s="1">
+        <v>-3.2755000000000002E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413" s="4">
+        <v>46250</v>
+      </c>
+      <c r="B413" s="1">
+        <v>-0.8220305</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414" s="4">
+        <v>46255</v>
+      </c>
+      <c r="B414" s="1">
+        <v>-0.2944638</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415" s="4">
+        <v>47076</v>
+      </c>
+      <c r="B415" s="1">
+        <v>-1.955865</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416" s="4">
+        <v>47186</v>
+      </c>
+      <c r="B416" s="1">
+        <v>1.27597</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417" s="4">
+        <v>48002</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2.1855799999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418" s="4">
+        <v>48013</v>
+      </c>
+      <c r="B418" s="1">
+        <v>3.2935759999999998</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419" s="4">
+        <v>48017</v>
+      </c>
+      <c r="B419" s="1">
+        <v>-0.3078224</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420" s="4">
+        <v>48020</v>
+      </c>
+      <c r="B420" s="1">
+        <v>1.349402</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421" s="4">
+        <v>48054</v>
+      </c>
+      <c r="B421" s="1">
+        <v>3.7573699999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422" s="4">
+        <v>48078</v>
+      </c>
+      <c r="B422" s="1">
+        <v>-0.26443100000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423" s="4">
+        <v>48080</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424" s="4">
+        <v>48082</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425" s="4">
+        <v>48084</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426" s="4">
+        <v>49275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>